--- a/문서/기능정의서.xlsx
+++ b/문서/기능정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang315\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang315\Documents\ansanLibrary\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,9 +42,6 @@
     <t>작성자</t>
   </si>
   <si>
-    <t>박병준</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -869,10 +866,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이페이지 관련 메뉴 이용가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1130,6 +1123,14 @@
   </si>
   <si>
     <t>이진우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주예리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 관련 메뉴 이용가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1552,40 +1553,70 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1606,39 +1637,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1648,19 +1646,22 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1952,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1967,61 +1968,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="5" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2029,23 +2030,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2053,19 +2054,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="72"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="59"/>
       <c r="D5" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2073,19 +2074,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="59"/>
       <c r="D6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2093,19 +2094,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="73"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="60"/>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2113,23 +2114,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2137,23 +2138,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2161,19 +2162,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,21 +2182,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,23 +2204,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2227,23 +2228,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2251,23 +2252,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2275,23 +2276,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>102</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2299,23 +2300,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2323,19 +2324,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="77"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="64"/>
       <c r="D17" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2343,21 +2344,21 @@
         <v>15</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2365,19 +2366,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2385,45 +2386,45 @@
         <v>17</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="D20" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="81">
+      <c r="A21" s="49">
         <v>18</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="D21" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85" t="s">
-        <v>295</v>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2431,23 +2432,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2455,19 +2456,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="69"/>
+        <v>95</v>
+      </c>
+      <c r="C23" s="56"/>
       <c r="D23" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2475,21 +2476,21 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>98</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>99</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2497,21 +2498,21 @@
         <v>22</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>77</v>
-      </c>
       <c r="D25" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,23 +2520,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="E26" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>84</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2543,19 +2544,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>85</v>
+      </c>
+      <c r="C27" s="56"/>
       <c r="D27" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2563,21 +2564,21 @@
         <v>26</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="69"/>
+        <v>86</v>
+      </c>
+      <c r="C28" s="56"/>
       <c r="D28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>93</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2585,21 +2586,21 @@
         <v>27</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="C29" s="56"/>
       <c r="D29" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2607,19 +2608,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="56"/>
       <c r="D30" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2627,19 +2628,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="70"/>
+        <v>89</v>
+      </c>
+      <c r="C31" s="57"/>
       <c r="D31" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2647,23 +2648,23 @@
         <v>30</v>
       </c>
       <c r="B32" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="E32" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>109</v>
-      </c>
       <c r="F32" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G32" s="36"/>
       <c r="H32" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2671,21 +2672,21 @@
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="69"/>
+        <v>111</v>
+      </c>
+      <c r="C33" s="56"/>
       <c r="D33" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2693,19 +2694,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2713,23 +2714,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2737,19 +2738,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="79"/>
+        <v>120</v>
+      </c>
+      <c r="C36" s="78"/>
       <c r="D36" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2757,19 +2758,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="41" t="s">
+      <c r="E37" s="41" t="s">
         <v>125</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>126</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="36" x14ac:dyDescent="0.3">
@@ -2777,21 +2778,21 @@
         <v>36</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="79"/>
+      <c r="D38" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="41" t="s">
+      <c r="E38" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2799,21 +2800,21 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2821,23 +2822,23 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2845,23 +2846,23 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="58" t="s">
         <v>135</v>
       </c>
+      <c r="C41" s="65" t="s">
+        <v>134</v>
+      </c>
       <c r="D41" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2869,19 +2870,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="C42" s="66"/>
       <c r="D42" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2889,19 +2890,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="59"/>
+        <v>139</v>
+      </c>
+      <c r="C43" s="66"/>
       <c r="D43" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2909,21 +2910,21 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="59"/>
+        <v>154</v>
+      </c>
+      <c r="C44" s="66"/>
       <c r="D44" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2931,19 +2932,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="59"/>
+        <v>155</v>
+      </c>
+      <c r="C45" s="66"/>
       <c r="D45" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2951,19 +2952,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -2971,21 +2972,21 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="59"/>
+        <v>162</v>
+      </c>
+      <c r="C47" s="66"/>
       <c r="D47" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2993,19 +2994,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="C48" s="66"/>
       <c r="D48" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3013,21 +3014,21 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="60"/>
+        <v>176</v>
+      </c>
+      <c r="C49" s="67"/>
       <c r="D49" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,21 +3036,21 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3057,19 +3058,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="C51" s="69"/>
       <c r="D51" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3077,21 +3078,21 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="50"/>
+        <v>174</v>
+      </c>
+      <c r="C52" s="69"/>
       <c r="D52" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3099,19 +3100,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" s="50"/>
+        <v>225</v>
+      </c>
+      <c r="C53" s="69"/>
       <c r="D53" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3119,19 +3120,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="50"/>
+        <v>229</v>
+      </c>
+      <c r="C54" s="69"/>
       <c r="D54" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3139,19 +3140,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="57"/>
+        <v>175</v>
+      </c>
+      <c r="C55" s="70"/>
       <c r="D55" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3159,21 +3160,21 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3181,19 +3182,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="50"/>
+        <v>185</v>
+      </c>
+      <c r="C57" s="69"/>
       <c r="D57" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3201,19 +3202,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="50"/>
+        <v>186</v>
+      </c>
+      <c r="C58" s="69"/>
       <c r="D58" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -3221,19 +3222,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="70"/>
+      <c r="D59" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="E59" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3241,23 +3242,23 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="E60" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3265,19 +3266,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="50"/>
+        <v>220</v>
+      </c>
+      <c r="C61" s="69"/>
       <c r="D61" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3285,19 +3286,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="50"/>
+        <v>198</v>
+      </c>
+      <c r="C62" s="69"/>
       <c r="D62" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3305,19 +3306,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="50"/>
+        <v>199</v>
+      </c>
+      <c r="C63" s="69"/>
       <c r="D63" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3325,21 +3326,21 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="50"/>
+        <v>200</v>
+      </c>
+      <c r="C64" s="69"/>
       <c r="D64" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3347,21 +3348,21 @@
         <v>63</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>204</v>
-      </c>
       <c r="E65" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3369,21 +3370,21 @@
         <v>64</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="52"/>
+        <v>213</v>
+      </c>
+      <c r="C66" s="81"/>
       <c r="D66" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3391,21 +3392,21 @@
         <v>65</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="52"/>
+        <v>214</v>
+      </c>
+      <c r="C67" s="81"/>
       <c r="D67" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3413,21 +3414,21 @@
         <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" s="52"/>
+        <v>215</v>
+      </c>
+      <c r="C68" s="81"/>
       <c r="D68" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3435,19 +3436,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="82"/>
+      <c r="D69" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3455,21 +3456,21 @@
         <v>68</v>
       </c>
       <c r="B70" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="E70" s="41" t="s">
         <v>233</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>235</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3477,21 +3478,21 @@
         <v>69</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="43"/>
       <c r="H71" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3499,21 +3500,21 @@
         <v>70</v>
       </c>
       <c r="B72" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="E72" s="41" t="s">
         <v>239</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>241</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="43"/>
       <c r="H72" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3521,19 +3522,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="56"/>
+        <v>236</v>
+      </c>
+      <c r="C73" s="85"/>
       <c r="D73" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="43"/>
       <c r="H73" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3541,21 +3542,21 @@
         <v>72</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3563,21 +3564,21 @@
         <v>73</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="43"/>
       <c r="H75" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3585,21 +3586,21 @@
         <v>74</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="43"/>
       <c r="H76" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3607,23 +3608,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C77" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="E77" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F77" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="G77" s="43"/>
       <c r="H77" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3631,21 +3632,21 @@
         <v>76</v>
       </c>
       <c r="B78" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>254</v>
-      </c>
       <c r="E78" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="43"/>
       <c r="H78" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3653,19 +3654,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="55"/>
+        <v>250</v>
+      </c>
+      <c r="C79" s="84"/>
       <c r="D79" s="41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="43"/>
       <c r="H79" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3673,19 +3674,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="56"/>
+        <v>250</v>
+      </c>
+      <c r="C80" s="85"/>
       <c r="D80" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="43"/>
       <c r="H80" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3693,23 +3694,23 @@
         <v>79</v>
       </c>
       <c r="B81" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="E81" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="F81" s="42" t="s">
         <v>259</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="F81" s="42" t="s">
-        <v>261</v>
       </c>
       <c r="G81" s="43"/>
       <c r="H81" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="36" x14ac:dyDescent="0.3">
@@ -3717,21 +3718,21 @@
         <v>80</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="43"/>
       <c r="H82" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3739,21 +3740,21 @@
         <v>81</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C83" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="D83" s="41" t="s">
-        <v>264</v>
-      </c>
       <c r="E83" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -3761,21 +3762,21 @@
         <v>82</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="36" x14ac:dyDescent="0.3">
@@ -3783,21 +3784,21 @@
         <v>83</v>
       </c>
       <c r="B85" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>268</v>
-      </c>
       <c r="E85" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3805,21 +3806,21 @@
         <v>84</v>
       </c>
       <c r="B86" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="E86" s="46" t="s">
         <v>270</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>272</v>
       </c>
       <c r="F86" s="47"/>
       <c r="G86" s="48"/>
       <c r="H86" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3827,21 +3828,21 @@
         <v>85</v>
       </c>
       <c r="B87" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>275</v>
-      </c>
       <c r="E87" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F87" s="47"/>
       <c r="G87" s="48"/>
       <c r="H87" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3849,21 +3850,21 @@
         <v>86</v>
       </c>
       <c r="B88" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>278</v>
-      </c>
       <c r="E88" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F88" s="47"/>
       <c r="G88" s="48"/>
       <c r="H88" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -3871,21 +3872,21 @@
         <v>87</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="61" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>278</v>
       </c>
       <c r="D89" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E89" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="48"/>
       <c r="H89" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3893,19 +3894,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="72"/>
+      <c r="D90" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="46" t="s">
-        <v>281</v>
-      </c>
       <c r="E90" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F90" s="47"/>
       <c r="G90" s="48"/>
       <c r="H90" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -3913,19 +3914,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C91" s="63"/>
+        <v>277</v>
+      </c>
+      <c r="C91" s="73"/>
       <c r="D91" s="46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F91" s="47"/>
       <c r="G91" s="48"/>
       <c r="H91" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3933,21 +3934,21 @@
         <v>90</v>
       </c>
       <c r="B92" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>285</v>
-      </c>
       <c r="E92" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="48"/>
       <c r="H92" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3955,21 +3956,21 @@
         <v>91</v>
       </c>
       <c r="B93" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C93" s="61" t="s">
+      <c r="E93" s="46" t="s">
         <v>287</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E93" s="46" t="s">
-        <v>289</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="48"/>
       <c r="H93" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3977,19 +3978,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="63"/>
+        <v>284</v>
+      </c>
+      <c r="C94" s="73"/>
       <c r="D94" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E94" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="48"/>
       <c r="H94" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4194,14 +4195,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C41:C49"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="C89:C91"/>
@@ -4214,6 +4207,14 @@
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C50:C55"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:C31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
